--- a/data/trans_camb/P15A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.127303802001823</v>
+        <v>-3.124206886021167</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.770297921558097</v>
+        <v>-2.71762869886216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.462990962906702</v>
+        <v>-2.509171575633888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.483050362735035</v>
+        <v>-0.5489111215900156</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.195281542188209</v>
+        <v>-1.32004288063178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.197992340093795</v>
+        <v>-1.054514355233254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.294253715573052</v>
+        <v>-1.240327276915643</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.498176877354871</v>
+        <v>-1.467132193358255</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.248896769804151</v>
+        <v>-1.317878965988556</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3412631328562263</v>
+        <v>0.3384596348423129</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8140935958848926</v>
+        <v>0.7555113035319875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.615138485585955</v>
+        <v>1.778364646054995</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.439486567489329</v>
+        <v>3.02133993193135</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.194310444876562</v>
+        <v>2.21199917290282</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.767143398053705</v>
+        <v>1.752930023731731</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.209513010392719</v>
+        <v>1.265075221663188</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9899328315523152</v>
+        <v>1.003658975961482</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.271390596466066</v>
+        <v>1.379926906019485</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6980866889036357</v>
+        <v>-0.7134710572636972</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6421699951667823</v>
+        <v>-0.6283518671398977</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5943265379351146</v>
+        <v>-0.5969456814740449</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2039409108654331</v>
+        <v>-0.2049285182910394</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4167709828294427</v>
+        <v>-0.4475006178017596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3550953597226132</v>
+        <v>-0.345534193907659</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3937005320616195</v>
+        <v>-0.3702391572584551</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4295712977881436</v>
+        <v>-0.4196545758040484</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3606741887882329</v>
+        <v>-0.3857874265956076</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2868545958488266</v>
+        <v>0.210035548951347</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3405649288870444</v>
+        <v>0.3461782330053214</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7225552775588644</v>
+        <v>0.7527002423412377</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.35003635928391</v>
+        <v>1.808680805539451</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.420094854326575</v>
+        <v>1.329139195990648</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.201891164154167</v>
+        <v>1.098793409165469</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5455231174165244</v>
+        <v>0.5618495637123401</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4505311570845533</v>
+        <v>0.4251252106623654</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5806090712624583</v>
+        <v>0.5913583201818123</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.227257275896454</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.512437494232195</v>
+        <v>-1.512437494232196</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.3550905217779503</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.420424299142451</v>
+        <v>-3.264653896696706</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.027928392628307</v>
+        <v>-3.285955160059173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.615313732315824</v>
+        <v>-3.34134101569227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.740761637603377</v>
+        <v>-1.982880859922729</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.411664428949614</v>
+        <v>-2.3702162749013</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.883362726712596</v>
+        <v>-1.843702767127837</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.130712542736084</v>
+        <v>-2.088783952109779</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.220873326990143</v>
+        <v>-2.309612879665556</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.150422648771753</v>
+        <v>-2.113638803110169</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3054359685295877</v>
+        <v>0.2765171246496005</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5249836935321999</v>
+        <v>0.4098982529702405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.153191533656128</v>
+        <v>0.329352006020304</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.220213476759977</v>
+        <v>1.058580528486963</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7283552702039191</v>
+        <v>0.6474985799622258</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.258157723324997</v>
+        <v>1.450673342486641</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2438009886132555</v>
+        <v>0.2482853373326364</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2770241245553429</v>
+        <v>-0.003971294226504034</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3574664806651368</v>
+        <v>0.3466187201578945</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2759205345781696</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3400367389305451</v>
+        <v>-0.3400367389305453</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1141077871776218</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6027926679553366</v>
+        <v>-0.6013542797038487</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5512506538128116</v>
+        <v>-0.5750244726506638</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6340218077415199</v>
+        <v>-0.6108583422591782</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4391831329459183</v>
+        <v>-0.4872270067794174</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5956159780494835</v>
+        <v>-0.5874853103668704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.47098649011667</v>
+        <v>-0.4537394967518179</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4769811840432985</v>
+        <v>-0.4646062556027894</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4963763542096185</v>
+        <v>-0.5063153751510924</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4845726596194311</v>
+        <v>-0.4933151724118467</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1020342741340362</v>
+        <v>0.09166842105643656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1529417073759066</v>
+        <v>0.1482915619085915</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07205639264873741</v>
+        <v>0.1167212299801936</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5432734793052532</v>
+        <v>0.4728303923480754</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3415654300524351</v>
+        <v>0.3391821650442186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5505382443334507</v>
+        <v>0.6636627998853157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09197045751265441</v>
+        <v>0.1088038797701242</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0965531643653811</v>
+        <v>0.02761235994043876</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1013242003366382</v>
+        <v>0.1158106048984232</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.182334039482924</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.7648519564860068</v>
+        <v>-0.7648519564860071</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.8491756720573239</v>
@@ -1092,7 +1092,7 @@
         <v>-2.040296222731655</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.190299885800782</v>
+        <v>-1.190299885800781</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.892538269829677</v>
+        <v>-2.780968192393969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.58781748229666</v>
+        <v>-3.768655334285356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.492622532373563</v>
+        <v>-3.511596862683252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.705094812659458</v>
+        <v>-2.618049022005207</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.779048273371129</v>
+        <v>-3.912914169299928</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.644945381366091</v>
+        <v>-2.311942773895943</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.120739530100193</v>
+        <v>-2.258228377101856</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.183001439181744</v>
+        <v>-3.191521709845593</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.422388661454693</v>
+        <v>-2.476830113761368</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9144493199602118</v>
+        <v>0.9158166213374264</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2968347576374947</v>
+        <v>-0.2986545310279574</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2545550295359699</v>
+        <v>0.08456673687998152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.148822144316683</v>
+        <v>0.9932250747077724</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.6976681167521326</v>
+        <v>-0.6583548771005778</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8340337200706113</v>
+        <v>0.8677411131835046</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4232213651444161</v>
+        <v>0.4442263537874485</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.8219247637191192</v>
+        <v>-0.844374675066625</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.002699527594479826</v>
+        <v>0.0427111467277535</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.6188746580660832</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2168996516929214</v>
+        <v>-0.2168996516929215</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2414186658223454</v>
@@ -1197,7 +1197,7 @@
         <v>-0.5800514642404833</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3383994853059292</v>
+        <v>-0.3383994853059289</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6241605548844686</v>
+        <v>-0.6183878364419438</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7914055503069278</v>
+        <v>-0.7912863215372311</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7478943840116972</v>
+        <v>-0.7472940526472373</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6076735689978079</v>
+        <v>-0.5862882069619741</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.826537916094664</v>
+        <v>-0.8302317275017468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5411646438590876</v>
+        <v>-0.509265110660479</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5093263502485679</v>
+        <v>-0.5232221352532238</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7534419984373248</v>
+        <v>-0.7492540269061133</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5732501164779804</v>
+        <v>-0.566533834107823</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3692193769719596</v>
+        <v>0.3958437605300272</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.08916947656936078</v>
+        <v>-0.05367090915620673</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2247786794518487</v>
+        <v>0.1207102036960176</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4343487644523094</v>
+        <v>0.4367162166369551</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2057357855938224</v>
+        <v>-0.1825061339653304</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3507885829423465</v>
+        <v>0.3958620633577931</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1574982965237774</v>
+        <v>0.1765078868001586</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2879830268528972</v>
+        <v>-0.2866470556113736</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0001787033128625541</v>
+        <v>0.02013170451603173</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.22261758174838</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.82048805025711</v>
+        <v>-0.8204880502571097</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.538059993291705</v>
+        <v>-1.767018718880571</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.148108581768835</v>
+        <v>-2.366194442846125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.3820559128129</v>
+        <v>-3.290374057087281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.356954802864574</v>
+        <v>-1.469472926499441</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5106382975134087</v>
+        <v>-0.4599828117602747</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.232013245268155</v>
+        <v>-1.156325993453487</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.079921030739702</v>
+        <v>-1.211418029298242</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8410112224571742</v>
+        <v>-0.8885752922905724</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.786229897812276</v>
+        <v>-1.872647293644157</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.879248356833869</v>
+        <v>1.949828336297935</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.356076951722067</v>
+        <v>0.9917418372780926</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.4499917187958582</v>
+        <v>-0.4686696831921769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.398611239450653</v>
+        <v>1.223705841402419</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.626840914224223</v>
+        <v>2.535088312126425</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.141140870788208</v>
+        <v>1.307547047510963</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.128965237255792</v>
+        <v>1.067075568310275</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.419493568810589</v>
+        <v>1.245667349368861</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0522472138691886</v>
+        <v>-0.03389480124569767</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.07682483126004133</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2831485973247551</v>
+        <v>-0.2831485973247549</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3741802899665239</v>
+        <v>-0.3881429170901051</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4999705801438124</v>
+        <v>-0.5291059081694525</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7248663239137845</v>
+        <v>-0.7317299615226249</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4673744514248511</v>
+        <v>-0.4862391558362719</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1851999176469263</v>
+        <v>-0.1903027625224793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4122444968062037</v>
+        <v>-0.3754030152326293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3185920078770925</v>
+        <v>-0.3291861121243442</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2599093904987321</v>
+        <v>-0.2683573349936703</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5024135369698722</v>
+        <v>-0.5149895607552776</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6956242316062539</v>
+        <v>0.7715050948189976</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4719753592383593</v>
+        <v>0.3691048247311435</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1177581264866497</v>
+        <v>-0.1381104162869758</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8667614437598371</v>
+        <v>0.7844312929489178</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.600541278738736</v>
+        <v>1.500392206996227</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7510007376511381</v>
+        <v>0.8780902048791891</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4769575295986099</v>
+        <v>0.4612145925740735</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6132423152419954</v>
+        <v>0.5336188670277588</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.04747149100017899</v>
+        <v>-0.007902857448383897</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.7132056048195432</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.7574663454494504</v>
+        <v>-0.7574663454494507</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.796437953957228</v>
+        <v>-1.704965604625151</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.98857443962193</v>
+        <v>-1.925258670321382</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.388029534419097</v>
+        <v>-2.24667754608047</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.865700043045895</v>
+        <v>-0.8536467987203749</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.10685660823268</v>
+        <v>-1.122175853622053</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8544738249402545</v>
+        <v>-0.829854258572204</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.061851556989648</v>
+        <v>-1.133444537647257</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.315704617192314</v>
+        <v>-1.282180656008604</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.315193842988826</v>
+        <v>-1.295758796801163</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.05845943345152187</v>
+        <v>-0.02495167146515812</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3017382242698559</v>
+        <v>-0.2449238749401158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.5343211618686934</v>
+        <v>-0.5025663106913802</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7222874943124841</v>
+        <v>0.7343385485976308</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4663092727418686</v>
+        <v>0.4451306324759751</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6768291481188795</v>
+        <v>0.5812259767818186</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1417389216942168</v>
+        <v>0.1516542140367989</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1782864317156767</v>
+        <v>-0.1188529457204577</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.1492011038659584</v>
+        <v>-0.1703882594892918</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3011005971621801</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.379485915472423</v>
+        <v>-0.3794859154724231</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.004522008377802515</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2188701147746361</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.232452948835691</v>
+        <v>-0.2324529488356911</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4215725009114563</v>
+        <v>-0.4100223505282042</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4737736621191448</v>
+        <v>-0.4617964241509317</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5589028233405143</v>
+        <v>-0.5301912855383463</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2713905667252039</v>
+        <v>-0.2654630039221911</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3516757571020952</v>
+        <v>-0.3529527503641336</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2623790130648371</v>
+        <v>-0.2684633163152172</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2909001479283963</v>
+        <v>-0.3119784312423864</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3684678007331269</v>
+        <v>-0.3670377334318136</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3656495920453522</v>
+        <v>-0.3580087194072601</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.01600169154488697</v>
+        <v>0.0004790600929207239</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08551591958569632</v>
+        <v>-0.06479422144877373</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1512290701817539</v>
+        <v>-0.1313096068445858</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2987969791930275</v>
+        <v>0.3072561807066807</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1943548591052209</v>
+        <v>0.1796350575602264</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2999337809801315</v>
+        <v>0.2527459551748208</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05029898906743797</v>
+        <v>0.04496738422467082</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.05890909784524048</v>
+        <v>-0.04375082697347493</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.05037873154240372</v>
+        <v>-0.05472345819408643</v>
       </c>
     </row>
     <row r="34">
